--- a/20230418_summary.xlsx
+++ b/20230418_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B2:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hello from Python</t>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Adress</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>reason for (ones) desire</t>
         </is>
       </c>
     </row>
